--- a/biology/Botanique/Heinrich_Gottlieb_Ludwig_Reichenbach/Heinrich_Gottlieb_Ludwig_Reichenbach.xlsx
+++ b/biology/Botanique/Heinrich_Gottlieb_Ludwig_Reichenbach/Heinrich_Gottlieb_Ludwig_Reichenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Gottlieb Ludwig Reichenbach est un  botaniste et un zoologiste saxon, né le 8 janvier 1793 à Leipzig et mort le 17 mars 1879 à Dresde.
 Son père est Johann Friedrich Jacob Reichenbach (de), recteur adjoint à la Thomasschule de Leipzig, auteur en 1818 du premier dictionnaire gréco-allemand. Son fils, Heinrich Gustav Reichenbach (1823-1889), est également un botaniste, spécialiste des orchidées.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Reichenbach étudie la médecine et les sciences naturelles à l'université de Leipzig à partir de 1810. Il y obtient un titre de docteur en philosophie en 1815 et de médecine en 1817. Il est habilité pour enseigner en 1818 et devient professeur extraordinaire, puis en 1820, professeur titulaire de la chaire d’histoire naturelle à l’Académie de médecine et de chirurgie de Dresde. Il occupe ce poste jusqu’à la suppression de l’institution en 1862.
 Parallèlement à ces fonctions, il dirige le muséum royal d'histoire naturelle de Zwinger. En outre, il fonde le jardin botanique de Dresde qu’il dirige jusqu'à sa mort.
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora germanica excursoria (1830–1832, 2 volumes).
 Flora exotica (1834–1836).
